--- a/biology/Médecine/Pénétrance/Pénétrance.xlsx
+++ b/biology/Médecine/Pénétrance/Pénétrance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9n%C3%A9trance</t>
+          <t>Pénétrance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pénétrance, en génétique, est la portion d'individus possédant un génotype donné qui exprime le phénotype correspondant [1],[2].
-La pénétrance varie selon l'âge[3], le sexe et les moyens utilisés pour la détecter[réf. nécessaire].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pénétrance, en génétique, est la portion d'individus possédant un génotype donné qui exprime le phénotype correspondant ,.
+La pénétrance varie selon l'âge, le sexe et les moyens utilisés pour la détecter[réf. nécessaire].
 Elle est à différencier de l'expressivité qui définit le degré de l'expression d'un phénotype (son intensité) chez l'individu possédant le génotype correspondant.
 La pénétrance d'une maladie génétique est de 100 % si cette maladie s'exprime dès que les conditions génétiques sont présentes, c'est-à-dire si tous les individus qui ont le même génotype expriment le même phénotype. Par exemple :
 dans l'achondroplasie, la pénétrance est de 100 % chez le fœtus ;
